--- a/data/sfs.xlsx
+++ b/data/sfs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellinares/Dropbox/viscalab/metacontrast/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8C91B-378C-C142-A86D-2D32CBB1B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F835D186-2883-41B8-9512-1A127AEA4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8420" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{49546463-DF8F-45BD-A847-40A07044E3D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49546463-DF8F-45BD-A847-40A07044E3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Schwartz et al</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Kiss et al</t>
   </si>
 </sst>
 </file>
@@ -480,20 +483,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D515C91-9D0B-4AA7-81A2-DE536221F6B9}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="22" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="22" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -526,7 +529,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1987</v>
       </c>
@@ -551,7 +554,7 @@
       </c>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1998</v>
       </c>
@@ -585,7 +588,7 @@
       </c>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -628,7 +631,7 @@
       </c>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -647,7 +650,7 @@
       </c>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -675,7 +678,7 @@
       </c>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -694,7 +697,7 @@
       </c>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -731,7 +734,7 @@
       </c>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -750,7 +753,7 @@
       </c>
       <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2006</v>
       </c>
@@ -769,7 +772,7 @@
       </c>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -788,7 +791,7 @@
       </c>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -813,12 +816,12 @@
       </c>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2010</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>20</v>
@@ -843,7 +846,7 @@
       </c>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -868,7 +871,7 @@
       </c>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -890,7 +893,7 @@
       </c>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -934,9 +937,9 @@
       </c>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -959,7 +962,7 @@
       </c>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -992,7 +995,7 @@
       </c>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>2019</v>
       </c>

--- a/data/sfs.xlsx
+++ b/data/sfs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joost\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/ajoostjo41_alumnes_ub_edu/Documents/Documents/01. RBC UB 22-23/Thesis/02. metacontrast/metacontrast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F835D186-2883-41B8-9512-1A127AEA4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{F835D186-2883-41B8-9512-1A127AEA4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9380D38-435E-4E4B-B7A1-26978BF17E0A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49546463-DF8F-45BD-A847-40A07044E3D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Schwartz et al</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Kiss et al</t>
+  </si>
+  <si>
+    <t>Zemon et al</t>
+  </si>
+  <si>
+    <t>Shoshina, Hovis et al</t>
+  </si>
+  <si>
+    <t>Shoshina, Mukhitova et al</t>
   </si>
 </sst>
 </file>
@@ -119,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,17 +165,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,16 +508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D515C91-9D0B-4AA7-81A2-DE536221F6B9}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="22" width="6.6328125" customWidth="1"/>
@@ -995,41 +1022,134 @@
       </c>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    <row r="20" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>2019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>50</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>50</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.2</v>
       </c>
-      <c r="G20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="G20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="6">
         <v>5</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="6">
         <v>10</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="6">
         <v>20</v>
       </c>
-      <c r="W20" s="5"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3">
+        <v>75</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <v>21</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="H22">
+        <v>0.6</v>
+      </c>
+      <c r="K22">
+        <v>2.8</v>
+      </c>
+      <c r="N22">
+        <v>4.5</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>16</v>
+      </c>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>68</v>
+      </c>
+      <c r="D23" s="9">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>4</v>
+      </c>
+      <c r="R23" s="4">
+        <v>10</v>
+      </c>
+      <c r="W23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sfs.xlsx
+++ b/data/sfs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/ajoostjo41_alumnes_ub_edu/Documents/Documents/01. RBC UB 22-23/Thesis/02. metacontrast/metacontrast/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{F835D186-2883-41B8-9512-1A127AEA4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9380D38-435E-4E4B-B7A1-26978BF17E0A}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{F835D186-2883-41B8-9512-1A127AEA4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F00EFDA-6F78-4860-A6D0-64CE19B2D189}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49546463-DF8F-45BD-A847-40A07044E3D3}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" xr2:uid="{49546463-DF8F-45BD-A847-40A07044E3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Schwartz et al</t>
   </si>
@@ -95,10 +95,10 @@
     <t>Zemon et al</t>
   </si>
   <si>
-    <t>Shoshina, Hovis et al</t>
-  </si>
-  <si>
-    <t>Shoshina, Mukhitova et al</t>
+    <t>2021a</t>
+  </si>
+  <si>
+    <t>2021b</t>
   </si>
 </sst>
 </file>
@@ -182,18 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,6 +205,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D515C91-9D0B-4AA7-81A2-DE536221F6B9}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2019</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3">
@@ -1038,31 +1038,31 @@
       <c r="E20" s="3">
         <v>0.2</v>
       </c>
-      <c r="G20" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <v>2</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20">
         <v>5</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20">
         <v>10</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20">
         <v>20</v>
       </c>
       <c r="W20" s="3"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>2020</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="3">
@@ -1075,7 +1075,7 @@
       <c r="G21">
         <v>0.5</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21">
         <v>1</v>
       </c>
       <c r="M21">
@@ -1090,11 +1090,11 @@
       <c r="W21" s="3"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" t="s">
         <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="3">
         <v>43</v>
@@ -1121,16 +1121,16 @@
       <c r="W22" s="3"/>
     </row>
     <row r="23" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="10">
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6">
         <v>68</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="5">
         <v>30</v>
       </c>
       <c r="E23" s="5"/>
